--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_125__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_125__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,139 +5873,139 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>4.038946151733398</c:v>
+                  <c:v>4.038935661315918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.68770122528076</c:v>
+                  <c:v>15.68769454956055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.86186408996582</c:v>
+                  <c:v>13.8618688583374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.95716667175293</c:v>
+                  <c:v>7.957160949707031</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>41.60911178588867</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.7587890625</c:v>
+                  <c:v>17.7588005065918</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.91622543334961</c:v>
+                  <c:v>32.91623306274414</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.21712303161621</c:v>
+                  <c:v>10.21712398529053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.39713573455811</c:v>
+                  <c:v>10.39713478088379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1542779058218002</c:v>
+                  <c:v>0.1542663425207138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.28242492675781</c:v>
+                  <c:v>30.28242874145508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.23630166053772</c:v>
+                  <c:v>3.236313581466675</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>26.88645935058594</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.07957458496094</c:v>
+                  <c:v>13.07959365844727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.30460262298584</c:v>
+                  <c:v>9.304607391357422</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.05867195129395</c:v>
+                  <c:v>30.05866622924805</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.93849182128906</c:v>
+                  <c:v>24.93849754333496</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.4610652923584</c:v>
+                  <c:v>18.4610595703125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.728102684021</c:v>
+                  <c:v>12.72809886932373</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20.62278366088867</c:v>
+                  <c:v>20.62277793884277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.86093521118164</c:v>
+                  <c:v>27.86094284057617</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.9174690246582</c:v>
+                  <c:v>12.91747379302979</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>18.18394470214844</c:v>
+                  <c:v>18.18393898010254</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>27.96102905273438</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.952325344085693</c:v>
+                  <c:v>4.952322959899902</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.52068138122559</c:v>
+                  <c:v>12.52068614959717</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>19.8874340057373</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.55082893371582</c:v>
+                  <c:v>16.55081558227539</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>23.31917381286621</c:v>
+                  <c:v>23.31917572021484</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.41053009033203</c:v>
+                  <c:v>19.41053199768066</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>22.80241394042969</c:v>
+                  <c:v>22.80242729187012</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.978034019470215</c:v>
+                  <c:v>9.978034973144531</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>20.50103759765625</c:v>
+                  <c:v>20.50101661682129</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>12.93766689300537</c:v>
+                  <c:v>12.93766307830811</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.0800952911377</c:v>
+                  <c:v>11.08010387420654</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>32.46257781982422</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.723546028137207</c:v>
+                  <c:v>8.723550796508789</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.947383403778076</c:v>
+                  <c:v>4.947376728057861</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.47543334960938</c:v>
+                  <c:v>12.47542381286621</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>17.6301097869873</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.00497627258301</c:v>
+                  <c:v>25.00496864318848</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>28.57611656188965</c:v>
+                  <c:v>28.57612228393555</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.423419117927551</c:v>
+                  <c:v>1.423421025276184</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>20.69020652770996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.31974411010742</c:v>
+                  <c:v>26.31976127624512</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>14.65971183776855</c:v>
@@ -6014,157 +6014,157 @@
                   <c:v>14.85408401489258</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16.26819229125977</c:v>
+                  <c:v>16.26819610595703</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.02679634094238</c:v>
+                  <c:v>21.02679252624512</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>19.09815788269043</c:v>
+                  <c:v>19.0981616973877</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.02698040008545</c:v>
+                  <c:v>13.0269889831543</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>15.68927574157715</c:v>
+                  <c:v>15.68928718566895</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>25.04037475585938</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.33603477478027</c:v>
+                  <c:v>16.33603668212891</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>21.6557674407959</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20.54329681396484</c:v>
+                  <c:v>20.54329872131348</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.893087863922119</c:v>
+                  <c:v>7.893083572387695</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.40362930297852</c:v>
+                  <c:v>16.40363121032715</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>5.894986152648926</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>20.52773284912109</c:v>
+                  <c:v>20.52773094177246</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>25.08117866516113</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.5150842666626</c:v>
+                  <c:v>13.51507759094238</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>30.47574234008789</c:v>
+                  <c:v>30.47574615478516</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>20.5182056427002</c:v>
+                  <c:v>20.51820945739746</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>12.16050624847412</c:v>
+                  <c:v>12.16051578521729</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.46376800537109</c:v>
+                  <c:v>18.46376037597656</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15.33436298370361</c:v>
+                  <c:v>15.33435821533203</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.47430229187012</c:v>
+                  <c:v>17.47430610656738</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.638930320739746</c:v>
+                  <c:v>9.638933181762695</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>14.22471141815186</c:v>
+                  <c:v>14.22472095489502</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>19.96185874938965</c:v>
+                  <c:v>19.96186637878418</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.66599464416504</c:v>
+                  <c:v>30.66599273681641</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>16.11186027526855</c:v>
+                  <c:v>16.11187171936035</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.1551628112793</c:v>
+                  <c:v>10.15515899658203</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.30899047851562</c:v>
+                  <c:v>21.30898094177246</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>19.70941162109375</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>9.648589134216309</c:v>
+                  <c:v>9.648591041564941</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.585410356521606</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>22.79068565368652</c:v>
+                  <c:v>22.7906665802002</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-2.035810947418213</c:v>
+                  <c:v>-2.035813331604004</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.01465797424316</c:v>
+                  <c:v>16.01465225219727</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.13579940795898</c:v>
+                  <c:v>19.13579750061035</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>19.70114517211914</c:v>
+                  <c:v>19.70114326477051</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>23.67265129089355</c:v>
+                  <c:v>23.67265510559082</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>15.00725746154785</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.178685426712036</c:v>
+                  <c:v>2.178680658340454</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.00533390045166</c:v>
+                  <c:v>7.005328178405762</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>30.59997177124023</c:v>
+                  <c:v>30.59996604919434</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>15.11607837677002</c:v>
+                  <c:v>15.1160831451416</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.978457450866699</c:v>
+                  <c:v>7.978453159332275</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.44609260559082</c:v>
+                  <c:v>18.44608688354492</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.855650901794434</c:v>
+                  <c:v>9.855647087097168</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>16.27662467956543</c:v>
+                  <c:v>16.27661514282227</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>14.82821178436279</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.278431534767151</c:v>
+                  <c:v>1.278422236442566</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>24.64250755310059</c:v>
+                  <c:v>24.64251327514648</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>16.02933311462402</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28.28179550170898</c:v>
+                  <c:v>28.28179359436035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.038946151733398</v>
+        <v>4.038935661315918</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>15.68770122528076</v>
+        <v>15.68769454956055</v>
       </c>
       <c r="G3">
         <v>81</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.86186408996582</v>
+        <v>13.8618688583374</v>
       </c>
       <c r="G4">
         <v>81</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7.95716667175293</v>
+        <v>7.957160949707031</v>
       </c>
       <c r="G5">
         <v>81</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.7587890625</v>
+        <v>17.7588005065918</v>
       </c>
       <c r="G7">
         <v>81</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.91622543334961</v>
+        <v>32.91623306274414</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.21712303161621</v>
+        <v>10.21712398529053</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.39713573455811</v>
+        <v>10.39713478088379</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1542779058218002</v>
+        <v>0.1542663425207138</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.28242492675781</v>
+        <v>30.28242874145508</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>3.23630166053772</v>
+        <v>3.236313581466675</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>13.07957458496094</v>
+        <v>13.07959365844727</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>9.30460262298584</v>
+        <v>9.304607391357422</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>30.05867195129395</v>
+        <v>30.05866622924805</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.93849182128906</v>
+        <v>24.93849754333496</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>18.4610652923584</v>
+        <v>18.4610595703125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.728102684021</v>
+        <v>12.72809886932373</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.62278366088867</v>
+        <v>20.62277793884277</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.86093521118164</v>
+        <v>27.86094284057617</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.9174690246582</v>
+        <v>12.91747379302979</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>18.18394470214844</v>
+        <v>18.18393898010254</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.952325344085693</v>
+        <v>4.952322959899902</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>12.52068138122559</v>
+        <v>12.52068614959717</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>16.55082893371582</v>
+        <v>16.55081558227539</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>23.31917381286621</v>
+        <v>23.31917572021484</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>19.41053009033203</v>
+        <v>19.41053199768066</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.80241394042969</v>
+        <v>22.80242729187012</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9.978034019470215</v>
+        <v>9.978034973144531</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>20.50103759765625</v>
+        <v>20.50101661682129</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>12.93766689300537</v>
+        <v>12.93766307830811</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>11.0800952911377</v>
+        <v>11.08010387420654</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.723546028137207</v>
+        <v>8.723550796508789</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.947383403778076</v>
+        <v>4.947376728057861</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>12.47543334960938</v>
+        <v>12.47542381286621</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25.00497627258301</v>
+        <v>25.00496864318848</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>28.57611656188965</v>
+        <v>28.57612228393555</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.423419117927551</v>
+        <v>1.423421025276184</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>26.31974411010742</v>
+        <v>26.31976127624512</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>34.9546</v>
       </c>
       <c r="F49">
-        <v>16.26819229125977</v>
+        <v>16.26819610595703</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.02679634094238</v>
+        <v>21.02679252624512</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>19.09815788269043</v>
+        <v>19.0981616973877</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>13.02698040008545</v>
+        <v>13.0269889831543</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>15.68927574157715</v>
+        <v>15.68928718566895</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>16.33603477478027</v>
+        <v>16.33603668212891</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>20.54329681396484</v>
+        <v>20.54329872131348</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.893087863922119</v>
+        <v>7.893083572387695</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>16.40362930297852</v>
+        <v>16.40363121032715</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>20.52773284912109</v>
+        <v>20.52773094177246</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>13.5150842666626</v>
+        <v>13.51507759094238</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>30.47574234008789</v>
+        <v>30.47574615478516</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>20.5182056427002</v>
+        <v>20.51820945739746</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>12.16050624847412</v>
+        <v>12.16051578521729</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>18.46376800537109</v>
+        <v>18.46376037597656</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>15.33436298370361</v>
+        <v>15.33435821533203</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.47430229187012</v>
+        <v>17.47430610656738</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.638930320739746</v>
+        <v>9.638933181762695</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>14.22471141815186</v>
+        <v>14.22472095489502</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>19.96185874938965</v>
+        <v>19.96186637878418</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>30.66599464416504</v>
+        <v>30.66599273681641</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>16.11186027526855</v>
+        <v>16.11187171936035</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>10.1551628112793</v>
+        <v>10.15515899658203</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>21.30899047851562</v>
+        <v>21.30898094177246</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>9.648589134216309</v>
+        <v>9.648591041564941</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>22.79068565368652</v>
+        <v>22.7906665802002</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-2.035810947418213</v>
+        <v>-2.035813331604004</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.01465797424316</v>
+        <v>16.01465225219727</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.13579940795898</v>
+        <v>19.13579750061035</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>19.70114517211914</v>
+        <v>19.70114326477051</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>23.67265129089355</v>
+        <v>23.67265510559082</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>2.178685426712036</v>
+        <v>2.178680658340454</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>7.00533390045166</v>
+        <v>7.005328178405762</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>30.59997177124023</v>
+        <v>30.59996604919434</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>15.11607837677002</v>
+        <v>15.1160831451416</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>7.978457450866699</v>
+        <v>7.978453159332275</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>18.44609260559082</v>
+        <v>18.44608688354492</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>9.855650901794434</v>
+        <v>9.855647087097168</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>16.27662467956543</v>
+        <v>16.27661514282227</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>1.278431534767151</v>
+        <v>1.278422236442566</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>24.64250755310059</v>
+        <v>24.64251327514648</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>28.28179550170898</v>
+        <v>28.28179359436035</v>
       </c>
     </row>
     <row r="100" spans="1:6">
